--- a/一对一价格表.xlsx
+++ b/一对一价格表.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,8 +113,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,7 +144,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +159,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,20 +235,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -166,92 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,174 +266,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,12 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,26 +460,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +495,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,17 +538,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,139 +577,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1029,7 +1032,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1055,207 +1058,209 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>6</v>
       </c>
     </row>
